--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2046819.465371256</v>
+        <v>2043833.866159564</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11964449.06815877</v>
+        <v>11964449.06815876</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673442</v>
+        <v>603248.4937673397</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9723405.843332037</v>
+        <v>9723405.843332039</v>
       </c>
     </row>
     <row r="11">
@@ -911,7 +911,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>6.05642108929943</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I6" t="n">
         <v>6.876045741711437</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,52 +1072,52 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14.14993519808115</v>
+        <v>12.46326292246986</v>
       </c>
       <c r="G8" t="n">
         <v>14.14993519808116</v>
       </c>
       <c r="H8" t="n">
-        <v>12.46326292246986</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>12.46326292246987</v>
+      </c>
+      <c r="C9" t="n">
         <v>14.14993519808115</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14.14993519808115</v>
+        <v>12.46326292246987</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>12.46326292246987</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>208.2211699971545</v>
       </c>
       <c r="G11" t="n">
         <v>409.9647389006283</v>
       </c>
       <c r="H11" t="n">
-        <v>284.8070238049501</v>
+        <v>284.80702380495</v>
       </c>
       <c r="I11" t="n">
-        <v>4.682697984634984</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.38042615817299</v>
       </c>
       <c r="T11" t="n">
-        <v>83.77161305810401</v>
+        <v>199.7287606291281</v>
       </c>
       <c r="U11" t="n">
         <v>250.918613018676</v>
@@ -1464,10 +1464,10 @@
         <v>134.4874361120621</v>
       </c>
       <c r="H12" t="n">
-        <v>84.65171408461413</v>
+        <v>84.6517140846141</v>
       </c>
       <c r="I12" t="n">
-        <v>1.188010475805456</v>
+        <v>1.18801047580537</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>118.6327182458807</v>
+        <v>118.6327182458806</v>
       </c>
       <c r="T12" t="n">
         <v>188.6527177912885</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>77.44835390987772</v>
       </c>
       <c r="G13" t="n">
         <v>165.5965369471565</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.996486220826531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.9647389006283</v>
+        <v>211.3098631560714</v>
       </c>
       <c r="H14" t="n">
-        <v>284.8070238049501</v>
+        <v>284.80702380495</v>
       </c>
       <c r="I14" t="n">
-        <v>4.682697984634984</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.38042615817309</v>
+        <v>87.38042615817299</v>
       </c>
       <c r="T14" t="n">
         <v>199.7287606291281</v>
@@ -1664,7 +1664,7 @@
         <v>250.918613018676</v>
       </c>
       <c r="V14" t="n">
-        <v>124.4146847409377</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.4874361120621</v>
       </c>
       <c r="H15" t="n">
-        <v>84.65171408461413</v>
+        <v>84.6517140846141</v>
       </c>
       <c r="I15" t="n">
-        <v>1.188010475805456</v>
+        <v>1.18801047580537</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>118.6327182458807</v>
+        <v>118.6327182458806</v>
       </c>
       <c r="T15" t="n">
         <v>188.6527177912885</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>99.27412698557158</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>100.1906514034802</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>83.44306132191257</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>69.63055350170403</v>
       </c>
       <c r="S16" t="n">
         <v>182.2879971054585</v>
       </c>
       <c r="T16" t="n">
-        <v>217.7147900345353</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1884234067835</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>211.3098631560683</v>
+        <v>409.9647389006283</v>
       </c>
       <c r="H17" t="n">
-        <v>284.8070238049501</v>
+        <v>281.198210704887</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.682697984634814</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>87.38042615817305</v>
+        <v>87.38042615817299</v>
       </c>
       <c r="T17" t="n">
-        <v>199.7287606291281</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.918613018676</v>
@@ -1938,10 +1938,10 @@
         <v>134.4874361120621</v>
       </c>
       <c r="H18" t="n">
-        <v>84.65171408461411</v>
+        <v>84.6517140846141</v>
       </c>
       <c r="I18" t="n">
-        <v>1.188010475805427</v>
+        <v>1.18801047580537</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>118.6327182458807</v>
+        <v>118.6327182458806</v>
       </c>
       <c r="T18" t="n">
         <v>188.6527177912885</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5965369471565</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.9384027051336</v>
       </c>
       <c r="I19" t="n">
-        <v>76.60303879713486</v>
+        <v>32.47593465019626</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>69.63055350170409</v>
+        <v>69.63055350170403</v>
       </c>
       <c r="S19" t="n">
         <v>182.2879971054585</v>
@@ -2056,7 +2056,7 @@
         <v>217.7147900345353</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1884234067835</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>166.6180160264506</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,10 +2096,10 @@
         <v>409.9647389006283</v>
       </c>
       <c r="H20" t="n">
-        <v>284.8070238049501</v>
+        <v>284.80702380495</v>
       </c>
       <c r="I20" t="n">
-        <v>1.073884884568379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>87.38042615817305</v>
+        <v>87.38042615817299</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>199.7287606291281</v>
       </c>
       <c r="U20" t="n">
         <v>250.918613018676</v>
@@ -2175,10 +2175,10 @@
         <v>134.4874361120621</v>
       </c>
       <c r="H21" t="n">
-        <v>84.65171408461411</v>
+        <v>84.6517140846141</v>
       </c>
       <c r="I21" t="n">
-        <v>1.188010475805427</v>
+        <v>1.18801047580537</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>118.6327182458807</v>
+        <v>118.6327182458806</v>
       </c>
       <c r="T21" t="n">
         <v>188.6527177912885</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4614874519512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>165.5965369471565</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9384027051336</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>83.44306132191259</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.7147900345353</v>
       </c>
       <c r="U22" t="n">
         <v>286.1884234067835</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>191.4094853632292</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>101.4912798484956</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>20.92847288552876</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>210.8399757234832</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4764219077133</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>72.976073321717</v>
       </c>
     </row>
     <row r="32">
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.9742741983374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146493</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>176.7621441121391</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>258.0279804307065</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695618</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176171</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>75.55208621972935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470134</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6315337216685</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>176.5196562849269</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695469</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.8058856274573</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>140.9357387834175</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F5" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.495584408540386</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
         <v>0.5500836593369149</v>
@@ -4565,25 +4565,25 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
         <v>14.16465422792556</v>
       </c>
       <c r="N5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q5" t="n">
         <v>27.50418296684575</v>
@@ -4592,25 +4592,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="T5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="U5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="V5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="W5" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="X5" t="n">
         <v>21.38658590694733</v>
       </c>
-      <c r="T5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="U5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="V5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="W5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="X5" t="n">
-        <v>14.44108515774386</v>
-      </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="C6" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="E6" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="G6" t="n">
         <v>14.44108515774386</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.495584408540386</v>
       </c>
       <c r="H6" t="n">
         <v>7.495584408540386</v>
@@ -4644,22 +4644,22 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M6" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N6" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4686,10 +4686,10 @@
         <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,10 +4729,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L7" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N7" t="n">
         <v>27.50418296684575</v>
@@ -4744,19 +4744,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V7" t="n">
         <v>14.44108515774386</v>
@@ -4765,10 +4765,10 @@
         <v>14.44108515774386</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="C8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="D8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="E8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="F8" t="n">
-        <v>28.01401311943339</v>
+        <v>15.42485865229211</v>
       </c>
       <c r="G8" t="n">
-        <v>13.72114928298777</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="H8" t="n">
         <v>1.131994815846492</v>
@@ -4802,19 +4802,19 @@
         <v>1.131994815846492</v>
       </c>
       <c r="J8" t="n">
-        <v>15.14043066194683</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="K8" t="n">
-        <v>28.58286910012393</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="L8" t="n">
-        <v>28.58286910012393</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="M8" t="n">
-        <v>28.58286910012393</v>
+        <v>1.131994815846492</v>
       </c>
       <c r="N8" t="n">
-        <v>28.58286910012393</v>
+        <v>14.57443325402359</v>
       </c>
       <c r="O8" t="n">
         <v>28.58286910012393</v>
@@ -4838,16 +4838,16 @@
         <v>42.306876955879</v>
       </c>
       <c r="V8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="W8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="X8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.306876955879</v>
+        <v>28.01401311943339</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.131994815846492</v>
+        <v>44.01058632518333</v>
       </c>
       <c r="C9" t="n">
-        <v>1.131994815846492</v>
+        <v>29.71772248873771</v>
       </c>
       <c r="D9" t="n">
-        <v>1.131994815846492</v>
+        <v>15.4248586522921</v>
       </c>
       <c r="E9" t="n">
         <v>1.131994815846492</v>
@@ -4881,10 +4881,10 @@
         <v>1.131994815846492</v>
       </c>
       <c r="J9" t="n">
-        <v>1.131994815846492</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="K9" t="n">
-        <v>1.131994815846492</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="L9" t="n">
         <v>15.14043066194683</v>
@@ -4896,10 +4896,10 @@
         <v>43.15730235414752</v>
       </c>
       <c r="O9" t="n">
-        <v>47.27275876732836</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="P9" t="n">
-        <v>47.27275876732836</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Q9" t="n">
         <v>56.59974079232461</v>
@@ -4920,13 +4920,13 @@
         <v>56.59974079232461</v>
       </c>
       <c r="W9" t="n">
-        <v>44.01058632518333</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="X9" t="n">
-        <v>29.71772248873771</v>
+        <v>56.59974079232461</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.4248586522921</v>
+        <v>56.59974079232461</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="C10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="E10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="F10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="G10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="H10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="I10" t="n">
-        <v>15.4248586522921</v>
+        <v>13.72114928298778</v>
       </c>
       <c r="J10" t="n">
         <v>1.131994815846492</v>
       </c>
       <c r="K10" t="n">
-        <v>1.131994815846492</v>
+        <v>15.14043066194683</v>
       </c>
       <c r="L10" t="n">
-        <v>1.131994815846492</v>
+        <v>28.58286910012393</v>
       </c>
       <c r="M10" t="n">
-        <v>14.57443325402359</v>
+        <v>28.58286910012393</v>
       </c>
       <c r="N10" t="n">
         <v>28.58286910012393</v>
@@ -4990,22 +4990,22 @@
         <v>42.306876955879</v>
       </c>
       <c r="T10" t="n">
-        <v>29.71772248873771</v>
+        <v>42.306876955879</v>
       </c>
       <c r="U10" t="n">
-        <v>15.4248586522921</v>
+        <v>42.306876955879</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4248586522921</v>
+        <v>42.306876955879</v>
       </c>
       <c r="W10" t="n">
-        <v>15.4248586522921</v>
+        <v>42.306876955879</v>
       </c>
       <c r="X10" t="n">
-        <v>15.4248586522921</v>
+        <v>42.306876955879</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.4248586522921</v>
+        <v>28.01401311943339</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2320.371610576297</v>
+        <v>2114.980121960952</v>
       </c>
       <c r="C11" t="n">
-        <v>1951.409093635886</v>
+        <v>1746.01760502054</v>
       </c>
       <c r="D11" t="n">
-        <v>1593.143395029135</v>
+        <v>1387.75190641379</v>
       </c>
       <c r="E11" t="n">
-        <v>1207.355142430891</v>
+        <v>1001.963653815546</v>
       </c>
       <c r="F11" t="n">
-        <v>796.3692376412835</v>
+        <v>791.6392396770059</v>
       </c>
       <c r="G11" t="n">
-        <v>382.2634407719619</v>
+        <v>377.5334428076843</v>
       </c>
       <c r="H11" t="n">
-        <v>94.5795783427195</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="I11" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J11" t="n">
         <v>359.1395352059335</v>
       </c>
       <c r="K11" t="n">
-        <v>813.4738895188643</v>
+        <v>813.4738895188639</v>
       </c>
       <c r="L11" t="n">
         <v>1414.017592893761</v>
       </c>
       <c r="M11" t="n">
-        <v>2113.907612726071</v>
+        <v>2113.907612726072</v>
       </c>
       <c r="N11" t="n">
-        <v>2829.73639317059</v>
+        <v>2829.736393170591</v>
       </c>
       <c r="O11" t="n">
-        <v>3492.337950782492</v>
+        <v>3492.337950782495</v>
       </c>
       <c r="P11" t="n">
-        <v>4023.352049516468</v>
+        <v>4023.352049516473</v>
       </c>
       <c r="Q11" t="n">
-        <v>4373.948776444254</v>
+        <v>4373.948776444259</v>
       </c>
       <c r="R11" t="n">
-        <v>4492.479018922087</v>
+        <v>4492.479018922092</v>
       </c>
       <c r="S11" t="n">
-        <v>4492.479018922087</v>
+        <v>4404.215962196665</v>
       </c>
       <c r="T11" t="n">
-        <v>4407.861227954305</v>
+        <v>4202.46973933896</v>
       </c>
       <c r="U11" t="n">
-        <v>4154.408083490996</v>
+        <v>3949.016594875651</v>
       </c>
       <c r="V11" t="n">
-        <v>3823.345196147425</v>
+        <v>3617.95370753208</v>
       </c>
       <c r="W11" t="n">
-        <v>3470.57654087731</v>
+        <v>3265.185052261966</v>
       </c>
       <c r="X11" t="n">
-        <v>3097.110782616231</v>
+        <v>2891.719294000886</v>
       </c>
       <c r="Y11" t="n">
-        <v>2706.971450640419</v>
+        <v>2501.579962025074</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.556372863714</v>
       </c>
       <c r="H12" t="n">
-        <v>91.0495909600634</v>
+        <v>91.04959096006343</v>
       </c>
       <c r="I12" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J12" t="n">
-        <v>231.4189856958262</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4189856958262</v>
+        <v>409.9690676338965</v>
       </c>
       <c r="L12" t="n">
-        <v>708.1816826643619</v>
+        <v>886.7317646024328</v>
       </c>
       <c r="M12" t="n">
-        <v>1283.898130755269</v>
+        <v>1462.448212693341</v>
       </c>
       <c r="N12" t="n">
-        <v>1889.260725045134</v>
+        <v>1614.33507037239</v>
       </c>
       <c r="O12" t="n">
-        <v>2420.829436439171</v>
+        <v>2145.903781766428</v>
       </c>
       <c r="P12" t="n">
         <v>2553.201470342285</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>723.0615794561467</v>
+        <v>504.2856530609288</v>
       </c>
       <c r="C13" t="n">
-        <v>554.1253965282399</v>
+        <v>335.3494701330219</v>
       </c>
       <c r="D13" t="n">
-        <v>404.0087571159041</v>
+        <v>335.3494701330219</v>
       </c>
       <c r="E13" t="n">
-        <v>404.0087571159041</v>
+        <v>335.3494701330219</v>
       </c>
       <c r="F13" t="n">
-        <v>257.1188096179937</v>
+        <v>257.1188096179939</v>
       </c>
       <c r="G13" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="H13" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="I13" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J13" t="n">
-        <v>165.0181997572178</v>
+        <v>165.018199757218</v>
       </c>
       <c r="K13" t="n">
-        <v>418.3801689975846</v>
+        <v>418.3801689975851</v>
       </c>
       <c r="L13" t="n">
-        <v>798.1226947552386</v>
+        <v>798.1226947552393</v>
       </c>
       <c r="M13" t="n">
-        <v>1208.897067430231</v>
+        <v>1208.897067430232</v>
       </c>
       <c r="N13" t="n">
-        <v>1615.338760070733</v>
+        <v>1615.338760070734</v>
       </c>
       <c r="O13" t="n">
-        <v>1974.737152203986</v>
+        <v>1974.737152203988</v>
       </c>
       <c r="P13" t="n">
-        <v>2258.743882435923</v>
+        <v>2258.743882435926</v>
       </c>
       <c r="Q13" t="n">
-        <v>2371.940341071296</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="R13" t="n">
-        <v>2371.940341071296</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="S13" t="n">
-        <v>2187.811051065782</v>
+        <v>2187.811051065784</v>
       </c>
       <c r="T13" t="n">
-        <v>1967.897121737969</v>
+        <v>1967.897121737971</v>
       </c>
       <c r="U13" t="n">
-        <v>1678.817906175561</v>
+        <v>1678.817906175563</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.133417969674</v>
+        <v>1424.133417969676</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.716247932713</v>
+        <v>1134.716247932716</v>
       </c>
       <c r="X13" t="n">
-        <v>906.7266970346959</v>
+        <v>906.7266970346986</v>
       </c>
       <c r="Y13" t="n">
-        <v>904.7100442863864</v>
+        <v>685.9341178911685</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2320.371610576297</v>
+        <v>2114.980121960952</v>
       </c>
       <c r="C14" t="n">
-        <v>1951.409093635886</v>
+        <v>1746.01760502054</v>
       </c>
       <c r="D14" t="n">
-        <v>1593.143395029135</v>
+        <v>1387.75190641379</v>
       </c>
       <c r="E14" t="n">
-        <v>1207.355142430891</v>
+        <v>1001.963653815546</v>
       </c>
       <c r="F14" t="n">
-        <v>796.3692376412835</v>
+        <v>590.9777490259385</v>
       </c>
       <c r="G14" t="n">
-        <v>382.2634407719619</v>
+        <v>377.5334428076843</v>
       </c>
       <c r="H14" t="n">
-        <v>94.57957834271946</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="I14" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J14" t="n">
-        <v>359.1395352059335</v>
+        <v>359.1395352059344</v>
       </c>
       <c r="K14" t="n">
-        <v>813.4738895188634</v>
+        <v>813.4738895188652</v>
       </c>
       <c r="L14" t="n">
-        <v>1414.01759289376</v>
+        <v>1414.017592893763</v>
       </c>
       <c r="M14" t="n">
-        <v>2113.907612726071</v>
+        <v>2113.907612726075</v>
       </c>
       <c r="N14" t="n">
-        <v>2829.736393170589</v>
+        <v>2829.736393170594</v>
       </c>
       <c r="O14" t="n">
-        <v>3492.337950782491</v>
+        <v>3492.337950782496</v>
       </c>
       <c r="P14" t="n">
-        <v>4023.352049516467</v>
+        <v>4023.352049516473</v>
       </c>
       <c r="Q14" t="n">
-        <v>4373.948776444254</v>
+        <v>4373.948776444259</v>
       </c>
       <c r="R14" t="n">
-        <v>4492.479018922087</v>
+        <v>4492.479018922092</v>
       </c>
       <c r="S14" t="n">
-        <v>4404.215962196659</v>
+        <v>4404.215962196665</v>
       </c>
       <c r="T14" t="n">
-        <v>4202.469739338954</v>
+        <v>4202.46973933896</v>
       </c>
       <c r="U14" t="n">
-        <v>3949.016594875645</v>
+        <v>3949.01659487565</v>
       </c>
       <c r="V14" t="n">
-        <v>3823.345196147425</v>
+        <v>3617.95370753208</v>
       </c>
       <c r="W14" t="n">
-        <v>3470.576540877311</v>
+        <v>3265.185052261965</v>
       </c>
       <c r="X14" t="n">
-        <v>3097.110782616231</v>
+        <v>2891.719294000886</v>
       </c>
       <c r="Y14" t="n">
-        <v>2706.971450640419</v>
+        <v>2501.579962025074</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>176.556372863714</v>
       </c>
       <c r="H15" t="n">
-        <v>91.0495909600634</v>
+        <v>91.04959096006343</v>
       </c>
       <c r="I15" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J15" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="K15" t="n">
-        <v>363.7910195989398</v>
+        <v>210.9075059003662</v>
       </c>
       <c r="L15" t="n">
-        <v>840.5537165674756</v>
+        <v>210.9075059003662</v>
       </c>
       <c r="M15" t="n">
-        <v>1416.270164658383</v>
+        <v>786.6239539912746</v>
       </c>
       <c r="N15" t="n">
-        <v>2021.632758948248</v>
+        <v>1391.986548281139</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.201470342285</v>
+        <v>1923.555259675177</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.201470342285</v>
+        <v>2330.852948251033</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.201470342285</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>504.2856530609259</v>
+        <v>908.5501781686647</v>
       </c>
       <c r="C16" t="n">
-        <v>404.0087571159041</v>
+        <v>739.6139952407578</v>
       </c>
       <c r="D16" t="n">
-        <v>404.0087571159041</v>
+        <v>589.4973558284221</v>
       </c>
       <c r="E16" t="n">
-        <v>404.0087571159041</v>
+        <v>488.2946776430886</v>
       </c>
       <c r="F16" t="n">
-        <v>257.1188096179937</v>
+        <v>341.4047301451782</v>
       </c>
       <c r="G16" t="n">
-        <v>89.84958037844173</v>
+        <v>174.1355009056263</v>
       </c>
       <c r="H16" t="n">
-        <v>89.84958037844173</v>
+        <v>174.1355009056263</v>
       </c>
       <c r="I16" t="n">
-        <v>89.84958037844173</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J16" t="n">
-        <v>165.0181997572178</v>
+        <v>165.018199757218</v>
       </c>
       <c r="K16" t="n">
-        <v>418.3801689975846</v>
+        <v>418.3801689975854</v>
       </c>
       <c r="L16" t="n">
-        <v>798.1226947552386</v>
+        <v>798.1226947552395</v>
       </c>
       <c r="M16" t="n">
-        <v>1208.897067430231</v>
+        <v>1208.897067430232</v>
       </c>
       <c r="N16" t="n">
-        <v>1615.338760070733</v>
+        <v>1615.338760070734</v>
       </c>
       <c r="O16" t="n">
-        <v>1974.737152203986</v>
+        <v>1974.737152203988</v>
       </c>
       <c r="P16" t="n">
-        <v>2258.743882435923</v>
+        <v>2258.743882435926</v>
       </c>
       <c r="Q16" t="n">
-        <v>2371.940341071295</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="R16" t="n">
-        <v>2371.940341071295</v>
+        <v>2301.606448645334</v>
       </c>
       <c r="S16" t="n">
-        <v>2187.811051065782</v>
+        <v>2117.47715863982</v>
       </c>
       <c r="T16" t="n">
-        <v>1967.897121737968</v>
+        <v>2117.47715863982</v>
       </c>
       <c r="U16" t="n">
-        <v>1678.817906175561</v>
+        <v>1828.397943077412</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.133417969674</v>
+        <v>1828.397943077412</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.716247932713</v>
+        <v>1538.980773040452</v>
       </c>
       <c r="X16" t="n">
-        <v>906.7266970346958</v>
+        <v>1310.991222142434</v>
       </c>
       <c r="Y16" t="n">
-        <v>685.9341178911657</v>
+        <v>1090.198642998904</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2114.980121960949</v>
+        <v>2316.726344818658</v>
       </c>
       <c r="C17" t="n">
-        <v>1746.017605020537</v>
+        <v>1947.763827878246</v>
       </c>
       <c r="D17" t="n">
-        <v>1387.751906413787</v>
+        <v>1589.498129271496</v>
       </c>
       <c r="E17" t="n">
-        <v>1001.963653815542</v>
+        <v>1203.709876673252</v>
       </c>
       <c r="F17" t="n">
-        <v>590.9777490259348</v>
+        <v>792.7239718836439</v>
       </c>
       <c r="G17" t="n">
-        <v>377.5334428076843</v>
+        <v>378.6181750143223</v>
       </c>
       <c r="H17" t="n">
-        <v>89.84958037844177</v>
+        <v>94.57957834271943</v>
       </c>
       <c r="I17" t="n">
-        <v>89.84958037844177</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J17" t="n">
-        <v>359.1395352059335</v>
+        <v>359.139535205934</v>
       </c>
       <c r="K17" t="n">
-        <v>813.4738895188634</v>
+        <v>813.4738895188642</v>
       </c>
       <c r="L17" t="n">
-        <v>1414.017592893761</v>
+        <v>1414.017592893762</v>
       </c>
       <c r="M17" t="n">
-        <v>2113.907612726072</v>
+        <v>2113.907612726073</v>
       </c>
       <c r="N17" t="n">
-        <v>2829.73639317059</v>
+        <v>2829.736393170592</v>
       </c>
       <c r="O17" t="n">
-        <v>3492.337950782492</v>
+        <v>3492.337950782495</v>
       </c>
       <c r="P17" t="n">
-        <v>4023.352049516469</v>
+        <v>4023.352049516473</v>
       </c>
       <c r="Q17" t="n">
-        <v>4373.948776444256</v>
+        <v>4373.948776444259</v>
       </c>
       <c r="R17" t="n">
-        <v>4492.479018922088</v>
+        <v>4492.479018922092</v>
       </c>
       <c r="S17" t="n">
-        <v>4404.215962196661</v>
+        <v>4404.215962196666</v>
       </c>
       <c r="T17" t="n">
-        <v>4202.469739338956</v>
+        <v>4404.215962196666</v>
       </c>
       <c r="U17" t="n">
-        <v>3949.016594875648</v>
+        <v>4150.762817733356</v>
       </c>
       <c r="V17" t="n">
-        <v>3617.953707532077</v>
+        <v>3819.699930389786</v>
       </c>
       <c r="W17" t="n">
-        <v>3265.185052261962</v>
+        <v>3466.931275119671</v>
       </c>
       <c r="X17" t="n">
-        <v>2891.719294000883</v>
+        <v>3093.465516858591</v>
       </c>
       <c r="Y17" t="n">
-        <v>2501.579962025071</v>
+        <v>2703.32618488278</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>176.556372863714</v>
       </c>
       <c r="H18" t="n">
-        <v>91.04959096006341</v>
+        <v>91.04959096006343</v>
       </c>
       <c r="I18" t="n">
-        <v>89.84958037844177</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J18" t="n">
-        <v>89.84958037844177</v>
+        <v>231.4189856958265</v>
       </c>
       <c r="K18" t="n">
-        <v>363.7910195989392</v>
+        <v>551.5384729512812</v>
       </c>
       <c r="L18" t="n">
-        <v>840.5537165674751</v>
+        <v>1028.301169919818</v>
       </c>
       <c r="M18" t="n">
-        <v>1416.270164658383</v>
+        <v>1604.017618010726</v>
       </c>
       <c r="N18" t="n">
-        <v>2021.632758948248</v>
+        <v>2209.380212300591</v>
       </c>
       <c r="O18" t="n">
         <v>2553.201470342285</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>943.8235553409006</v>
+        <v>433.9517606349648</v>
       </c>
       <c r="C19" t="n">
-        <v>774.8873724129937</v>
+        <v>265.0155777070579</v>
       </c>
       <c r="D19" t="n">
-        <v>624.770733000658</v>
+        <v>265.0155777070579</v>
       </c>
       <c r="E19" t="n">
-        <v>476.8576394182649</v>
+        <v>265.0155777070579</v>
       </c>
       <c r="F19" t="n">
-        <v>476.8576394182649</v>
+        <v>265.0155777070579</v>
       </c>
       <c r="G19" t="n">
-        <v>309.5884101787129</v>
+        <v>265.0155777070579</v>
       </c>
       <c r="H19" t="n">
-        <v>167.2263872442346</v>
+        <v>122.6535547725795</v>
       </c>
       <c r="I19" t="n">
-        <v>89.84958037844177</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J19" t="n">
-        <v>165.0181997572177</v>
+        <v>165.018199757218</v>
       </c>
       <c r="K19" t="n">
-        <v>418.3801689975849</v>
+        <v>418.3801689975851</v>
       </c>
       <c r="L19" t="n">
-        <v>798.1226947552389</v>
+        <v>798.1226947552393</v>
       </c>
       <c r="M19" t="n">
         <v>1208.897067430232</v>
       </c>
       <c r="N19" t="n">
-        <v>1615.338760070733</v>
+        <v>1615.338760070734</v>
       </c>
       <c r="O19" t="n">
-        <v>1974.737152203987</v>
+        <v>1974.737152203988</v>
       </c>
       <c r="P19" t="n">
-        <v>2258.743882435924</v>
+        <v>2258.743882435925</v>
       </c>
       <c r="Q19" t="n">
-        <v>2371.940341071296</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="R19" t="n">
-        <v>2301.606448645332</v>
+        <v>2301.606448645334</v>
       </c>
       <c r="S19" t="n">
-        <v>2117.477158639819</v>
+        <v>2117.47715863982</v>
       </c>
       <c r="T19" t="n">
-        <v>1897.563229312005</v>
+        <v>1897.563229312007</v>
       </c>
       <c r="U19" t="n">
-        <v>1897.563229312005</v>
+        <v>1608.4840137496</v>
       </c>
       <c r="V19" t="n">
-        <v>1642.878741106118</v>
+        <v>1353.799525543713</v>
       </c>
       <c r="W19" t="n">
-        <v>1353.461571069158</v>
+        <v>1064.382355506752</v>
       </c>
       <c r="X19" t="n">
-        <v>1125.47202017114</v>
+        <v>836.3928046087347</v>
       </c>
       <c r="Y19" t="n">
-        <v>1125.47202017114</v>
+        <v>615.6002254652045</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2316.726344818655</v>
+        <v>2114.980121960952</v>
       </c>
       <c r="C20" t="n">
-        <v>1947.763827878243</v>
+        <v>1946.679095671608</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.498129271492</v>
+        <v>1588.413397064858</v>
       </c>
       <c r="E20" t="n">
-        <v>1203.709876673248</v>
+        <v>1202.625144466613</v>
       </c>
       <c r="F20" t="n">
-        <v>792.7239718836403</v>
+        <v>791.6392396770058</v>
       </c>
       <c r="G20" t="n">
-        <v>378.6181750143187</v>
+        <v>377.5334428076843</v>
       </c>
       <c r="H20" t="n">
-        <v>90.9343125850765</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="I20" t="n">
-        <v>89.84958037844177</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J20" t="n">
-        <v>359.1395352059337</v>
+        <v>359.1395352059344</v>
       </c>
       <c r="K20" t="n">
-        <v>813.4738895188636</v>
+        <v>813.4738895188652</v>
       </c>
       <c r="L20" t="n">
-        <v>1414.017592893761</v>
+        <v>1414.017592893763</v>
       </c>
       <c r="M20" t="n">
-        <v>2113.907612726072</v>
+        <v>2113.907612726074</v>
       </c>
       <c r="N20" t="n">
-        <v>2829.73639317059</v>
+        <v>2829.736393170593</v>
       </c>
       <c r="O20" t="n">
-        <v>3492.337950782493</v>
+        <v>3492.337950782496</v>
       </c>
       <c r="P20" t="n">
-        <v>4023.352049516469</v>
+        <v>4023.352049516473</v>
       </c>
       <c r="Q20" t="n">
-        <v>4373.948776444256</v>
+        <v>4373.948776444259</v>
       </c>
       <c r="R20" t="n">
-        <v>4492.479018922088</v>
+        <v>4492.479018922092</v>
       </c>
       <c r="S20" t="n">
-        <v>4404.215962196662</v>
+        <v>4404.215962196665</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.215962196662</v>
+        <v>4202.46973933896</v>
       </c>
       <c r="U20" t="n">
-        <v>4150.762817733353</v>
+        <v>3949.016594875651</v>
       </c>
       <c r="V20" t="n">
-        <v>3819.699930389782</v>
+        <v>3617.95370753208</v>
       </c>
       <c r="W20" t="n">
-        <v>3466.931275119668</v>
+        <v>3265.185052261966</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.465516858588</v>
+        <v>2891.719294000886</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.326184882776</v>
+        <v>2501.579962025074</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.556372863714</v>
       </c>
       <c r="H21" t="n">
-        <v>91.04959096006341</v>
+        <v>91.04959096006343</v>
       </c>
       <c r="I21" t="n">
-        <v>89.84958037844177</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J21" t="n">
-        <v>231.4189856958263</v>
+        <v>231.4189856958265</v>
       </c>
       <c r="K21" t="n">
-        <v>551.5384729512807</v>
+        <v>551.5384729512812</v>
       </c>
       <c r="L21" t="n">
-        <v>1028.301169919817</v>
+        <v>1028.301169919818</v>
       </c>
       <c r="M21" t="n">
-        <v>1604.017618010725</v>
+        <v>1604.017618010726</v>
       </c>
       <c r="N21" t="n">
-        <v>2209.380212300589</v>
+        <v>2209.380212300591</v>
       </c>
       <c r="O21" t="n">
         <v>2553.201470342285</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>908.3288723942544</v>
+        <v>723.0615794561468</v>
       </c>
       <c r="C22" t="n">
-        <v>908.3288723942544</v>
+        <v>554.1253965282399</v>
       </c>
       <c r="D22" t="n">
-        <v>778.5697941599602</v>
+        <v>404.0087571159042</v>
       </c>
       <c r="E22" t="n">
-        <v>630.6567005775671</v>
+        <v>404.0087571159042</v>
       </c>
       <c r="F22" t="n">
-        <v>483.7667530796567</v>
+        <v>257.1188096179939</v>
       </c>
       <c r="G22" t="n">
-        <v>316.4975238401046</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="H22" t="n">
-        <v>174.1355009056262</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="I22" t="n">
-        <v>89.84958037844177</v>
+        <v>89.84958037844184</v>
       </c>
       <c r="J22" t="n">
-        <v>165.0181997572179</v>
+        <v>165.018199757218</v>
       </c>
       <c r="K22" t="n">
-        <v>418.3801689975846</v>
+        <v>418.380168997585</v>
       </c>
       <c r="L22" t="n">
-        <v>798.1226947552386</v>
+        <v>798.1226947552392</v>
       </c>
       <c r="M22" t="n">
-        <v>1208.897067430231</v>
+        <v>1208.897067430232</v>
       </c>
       <c r="N22" t="n">
-        <v>1615.338760070733</v>
+        <v>1615.338760070734</v>
       </c>
       <c r="O22" t="n">
-        <v>1974.737152203987</v>
+        <v>1974.737152203988</v>
       </c>
       <c r="P22" t="n">
-        <v>2258.743882435924</v>
+        <v>2258.743882435925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2371.940341071297</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="R22" t="n">
-        <v>2371.940341071297</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="S22" t="n">
-        <v>2371.940341071297</v>
+        <v>2371.940341071298</v>
       </c>
       <c r="T22" t="n">
-        <v>2371.940341071297</v>
+        <v>2152.026411743484</v>
       </c>
       <c r="U22" t="n">
-        <v>2082.861125508889</v>
+        <v>1862.947196181076</v>
       </c>
       <c r="V22" t="n">
-        <v>1828.176637303002</v>
+        <v>1608.262707975189</v>
       </c>
       <c r="W22" t="n">
-        <v>1538.759467266042</v>
+        <v>1318.845537938229</v>
       </c>
       <c r="X22" t="n">
-        <v>1310.769916368024</v>
+        <v>1125.502623429917</v>
       </c>
       <c r="Y22" t="n">
-        <v>1089.977337224494</v>
+        <v>904.7100442863865</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>700.7543264856226</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>550.6376870732869</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746424</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168405</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6233,16 +6233,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>783.5579673960131</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>614.6217844681062</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474263</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1475.416181406743</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>965.2064322262528</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851662</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572593</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449236</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449236</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449236</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598035</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.356899915406</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121638</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998278</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6856,19 +6856,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
         <v>2035.089393279803</v>
@@ -6877,7 +6877,7 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138407</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703104</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2018.514925172274</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>726.9555321712448</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>558.019349243338</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310022</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.6039970014846</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362695</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536378</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>705.932442825731</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133952</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036841</v>
+        <v>407.9027098310021</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740954</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535067</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.825401600089</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>1056.517090583877</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7664,10 +7664,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7731,13 +7731,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>985.7836617409689</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C46" t="n">
-        <v>816.8474788130619</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D46" t="n">
-        <v>666.7308394007262</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>518.817745818333</v>
+        <v>382.4184417036841</v>
       </c>
       <c r="F46" t="n">
-        <v>371.9277983204227</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>204.7316990353025</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2304.603751475798</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2085.00228649874</v>
       </c>
       <c r="U46" t="n">
-        <v>2160.315914855604</v>
+        <v>1795.927059842937</v>
       </c>
       <c r="V46" t="n">
-        <v>1905.631426649717</v>
+        <v>1541.24257163705</v>
       </c>
       <c r="W46" t="n">
-        <v>1616.214256612756</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="X46" t="n">
-        <v>1388.224705714739</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y46" t="n">
-        <v>1167.432126571209</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>141.5321695223577</v>
+        <v>141.5321695223597</v>
       </c>
       <c r="K2" t="n">
-        <v>160.8690051526185</v>
+        <v>160.8690051526215</v>
       </c>
       <c r="L2" t="n">
-        <v>162.2977189751056</v>
+        <v>162.2977189751093</v>
       </c>
       <c r="M2" t="n">
-        <v>148.5981530307595</v>
+        <v>148.5981530307636</v>
       </c>
       <c r="N2" t="n">
-        <v>146.3422139975115</v>
+        <v>146.3422139975157</v>
       </c>
       <c r="O2" t="n">
-        <v>151.6567637572372</v>
+        <v>151.6567637572412</v>
       </c>
       <c r="P2" t="n">
-        <v>164.2850349806931</v>
+        <v>164.2850349806965</v>
       </c>
       <c r="Q2" t="n">
-        <v>172.03055944898</v>
+        <v>172.0305594489825</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>103.303516794273</v>
+        <v>103.3035167942741</v>
       </c>
       <c r="K3" t="n">
-        <v>97.61789674456833</v>
+        <v>97.61789674457037</v>
       </c>
       <c r="L3" t="n">
-        <v>84.46886335849855</v>
+        <v>84.46886335850128</v>
       </c>
       <c r="M3" t="n">
-        <v>79.01878730727498</v>
+        <v>79.01878730727816</v>
       </c>
       <c r="N3" t="n">
-        <v>66.55599269597541</v>
+        <v>66.55599269597866</v>
       </c>
       <c r="O3" t="n">
-        <v>83.32996812265142</v>
+        <v>83.32996812265441</v>
       </c>
       <c r="P3" t="n">
-        <v>86.40799565887419</v>
+        <v>86.40799565887659</v>
       </c>
       <c r="Q3" t="n">
-        <v>108.1848875103682</v>
+        <v>108.1848875103698</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>104.7505765120478</v>
+        <v>104.750576512049</v>
       </c>
       <c r="L4" t="n">
-        <v>103.836797107302</v>
+        <v>103.8367971073035</v>
       </c>
       <c r="M4" t="n">
-        <v>106.1901485925736</v>
+        <v>106.1901485925753</v>
       </c>
       <c r="N4" t="n">
-        <v>95.72828935120174</v>
+        <v>95.72828935120336</v>
       </c>
       <c r="O4" t="n">
-        <v>108.9388409224089</v>
+        <v>108.9388409224104</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4705144728942</v>
+        <v>112.4705144728955</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>96.74492111185943</v>
+        <v>103.6209668535709</v>
       </c>
       <c r="K5" t="n">
-        <v>100.6205754234462</v>
+        <v>93.74452968173479</v>
       </c>
       <c r="L5" t="n">
-        <v>85.89991734304479</v>
+        <v>79.02387160133335</v>
       </c>
       <c r="M5" t="n">
-        <v>55.93995267482026</v>
+        <v>62.8159984165317</v>
       </c>
       <c r="N5" t="n">
-        <v>52.18470708864717</v>
+        <v>58.78293280039047</v>
       </c>
       <c r="O5" t="n">
         <v>62.74649997574608</v>
       </c>
       <c r="P5" t="n">
-        <v>95.27822759655393</v>
+        <v>88.4021818548425</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.6439226821691</v>
+        <v>121.9217427121372</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>76.62853846434811</v>
+        <v>83.50458420605955</v>
       </c>
       <c r="K6" t="n">
         <v>52.02611005068958</v>
@@ -8301,7 +8301,7 @@
         <v>23.16507977264236</v>
       </c>
       <c r="M6" t="n">
-        <v>14.07838908699296</v>
+        <v>7.480163375249674</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>23.0300448070567</v>
       </c>
       <c r="P6" t="n">
-        <v>39.36940389405079</v>
+        <v>39.09158386408265</v>
       </c>
       <c r="Q6" t="n">
         <v>72.14438013772387</v>
@@ -8377,13 +8377,13 @@
         <v>84.1258367566534</v>
       </c>
       <c r="L7" t="n">
-        <v>75.24348557180983</v>
+        <v>75.52130560177798</v>
       </c>
       <c r="M7" t="n">
         <v>75.96165252469231</v>
       </c>
       <c r="N7" t="n">
-        <v>66.38205635482377</v>
+        <v>66.10423632485562</v>
       </c>
       <c r="O7" t="n">
         <v>75.48170376208013</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97.35318406771486</v>
+        <v>83.20324886963371</v>
       </c>
       <c r="K8" t="n">
-        <v>87.02729395166016</v>
+        <v>73.44907330703683</v>
       </c>
       <c r="L8" t="n">
         <v>53.84556332150555</v>
@@ -8462,10 +8462,10 @@
         <v>27.92423337288395</v>
       </c>
       <c r="N8" t="n">
-        <v>23.71566415887276</v>
+        <v>37.29388480349608</v>
       </c>
       <c r="O8" t="n">
-        <v>35.86399002417318</v>
+        <v>50.01392522225433</v>
       </c>
       <c r="P8" t="n">
         <v>79.60851675810505</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>68.56321124662058</v>
+        <v>82.71314644470174</v>
       </c>
       <c r="K9" t="n">
         <v>38.24118120917458</v>
       </c>
       <c r="L9" t="n">
-        <v>18.77947697742692</v>
+        <v>4.629541779345772</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.421193964642679</v>
       </c>
       <c r="P9" t="n">
         <v>16.1919693400548</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.66852738472382</v>
+        <v>61.24733342008113</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,16 +8611,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>68.93477643328555</v>
+        <v>83.0847116313667</v>
       </c>
       <c r="L10" t="n">
-        <v>58.00490395487019</v>
+        <v>71.58312459949352</v>
       </c>
       <c r="M10" t="n">
-        <v>71.44506401355866</v>
+        <v>57.86684336893533</v>
       </c>
       <c r="N10" t="n">
-        <v>62.70393951596478</v>
+        <v>48.55400431788362</v>
       </c>
       <c r="O10" t="n">
         <v>79.51568851293169</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.262556046137337e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.83717855250728</v>
+        <v>14.83717855250731</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>198.654875744557</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.682697984634814</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.38042615817309</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>115.9571475710241</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>67.97269411305352</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.9384027051336</v>
       </c>
       <c r="I13" t="n">
-        <v>83.44306132191262</v>
+        <v>83.44306132191257</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.63055350170411</v>
+        <v>69.63055350170403</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.5881671312682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>198.654875744557</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4.682697984634814</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>203.3375737291972</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>67.97269411305625</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>46.24331124308898</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.9384027051336</v>
       </c>
       <c r="I16" t="n">
-        <v>83.44306132191262</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>69.63055350170411</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.7147900345353</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>198.65487574456</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.608813100063003</v>
       </c>
       <c r="I17" t="n">
-        <v>4.682697984634899</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>199.7287606291281</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5965369471565</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6.840022524777737</v>
+        <v>50.96712667171631</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1884234067835</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>198.654875744557</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3.60881310006652</v>
+        <v>4.682697984634814</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>199.7287606291281</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>20.15398556626116</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.9384027051336</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>83.44306132191257</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>69.63055350170409</v>
+        <v>69.63055350170403</v>
       </c>
       <c r="S22" t="n">
         <v>182.2879971054585</v>
       </c>
       <c r="T22" t="n">
-        <v>217.7147900345353</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>34.30017002580794</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>65.75554125013224</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038559</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>125.5054897610404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>41.2976676003448</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.81829093851054</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.5498640939315</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,10 +25363,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>40.64330621514918</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>28.15649395853762</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405071</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>210.9709121168617</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25837,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>84.77391660561972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>30.48882721876659</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>40.09054721822708</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>893870.7682051694</v>
+        <v>893870.7682051705</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>817353.6769567558</v>
+        <v>817353.6769567564</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817353.6769567558</v>
+        <v>817353.6769567564</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817353.6769567563</v>
+        <v>817353.6769567564</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>817353.6769567563</v>
+        <v>817353.6769567564</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.480192429</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>594002.2129775858</v>
+        <v>594002.2129775861</v>
       </c>
       <c r="C2" t="n">
-        <v>594826.2993160891</v>
+        <v>594826.299316089</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>572088.277608559</v>
+      </c>
+      <c r="F2" t="n">
         <v>572088.2776085588</v>
       </c>
-      <c r="F2" t="n">
-        <v>572088.2776085585</v>
-      </c>
       <c r="G2" t="n">
-        <v>572088.2776085587</v>
+        <v>572088.277608559</v>
       </c>
       <c r="H2" t="n">
-        <v>572088.2776085589</v>
+        <v>572088.277608559</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111593.8938278398</v>
+        <v>111593.8938278342</v>
       </c>
       <c r="C3" t="n">
-        <v>121750.2818968523</v>
+        <v>121750.2818968577</v>
       </c>
       <c r="D3" t="n">
         <v>36249.06486821849</v>
       </c>
       <c r="E3" t="n">
-        <v>1167510.806940781</v>
+        <v>1167510.806940782</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43408.25891975246</v>
+        <v>43408.25891975172</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>1769.67414045276</v>
       </c>
       <c r="L3" t="n">
-        <v>1840.955956402074</v>
+        <v>1840.955956402125</v>
       </c>
       <c r="M3" t="n">
-        <v>276359.7149067623</v>
+        <v>276359.7149067626</v>
       </c>
       <c r="N3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393143.1618478234</v>
+        <v>393143.1618478247</v>
       </c>
       <c r="C4" t="n">
         <v>362927.8785931708</v>
@@ -26424,37 +26424,37 @@
         <v>353530.8414321567</v>
       </c>
       <c r="E4" t="n">
-        <v>9311.436118807413</v>
+        <v>9311.436118807414</v>
       </c>
       <c r="F4" t="n">
-        <v>9311.436118807413</v>
+        <v>9311.436118807414</v>
       </c>
       <c r="G4" t="n">
-        <v>9311.436118807413</v>
+        <v>9311.436118807414</v>
       </c>
       <c r="H4" t="n">
-        <v>9311.436118807413</v>
+        <v>9311.436118807414</v>
       </c>
       <c r="I4" t="n">
+        <v>9337.200356756559</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9337.200356756563</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9337.200356756575</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9337.200356756572</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="J4" t="n">
-        <v>9337.200356756546</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756577</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9337.200356756559</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.20035675655</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36152.20986458973</v>
+        <v>36152.2098645896</v>
       </c>
       <c r="C5" t="n">
         <v>39431.8184029668</v>
@@ -26476,16 +26476,16 @@
         <v>40739.27482484731</v>
       </c>
       <c r="E5" t="n">
-        <v>97232.31307443211</v>
+        <v>97232.31307443223</v>
       </c>
       <c r="F5" t="n">
-        <v>97232.31307443211</v>
+        <v>97232.31307443223</v>
       </c>
       <c r="G5" t="n">
-        <v>97232.31307443214</v>
+        <v>97232.31307443223</v>
       </c>
       <c r="H5" t="n">
-        <v>97232.31307443214</v>
+        <v>97232.31307443223</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53112.94743733294</v>
+        <v>53108.62650570306</v>
       </c>
       <c r="C6" t="n">
-        <v>70716.32042309918</v>
+        <v>70714.84116848854</v>
       </c>
       <c r="D6" t="n">
         <v>164736.102026383</v>
       </c>
       <c r="E6" t="n">
-        <v>-701966.2785254617</v>
+        <v>-702046.1647514735</v>
       </c>
       <c r="F6" t="n">
-        <v>465544.528415319</v>
+        <v>465464.6421893087</v>
       </c>
       <c r="G6" t="n">
-        <v>465544.5284153186</v>
+        <v>465464.6421893089</v>
       </c>
       <c r="H6" t="n">
-        <v>465544.5284153193</v>
+        <v>465464.6421893089</v>
       </c>
       <c r="I6" t="n">
-        <v>431313.2956748383</v>
+        <v>431278.5577494032</v>
       </c>
       <c r="J6" t="n">
-        <v>474721.5545945907</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="K6" t="n">
-        <v>472951.880454138</v>
+        <v>472917.142528702</v>
       </c>
       <c r="L6" t="n">
-        <v>472880.5986381883</v>
+        <v>472845.860712753</v>
       </c>
       <c r="M6" t="n">
-        <v>198361.8396878286</v>
+        <v>198327.1017623922</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.554594591</v>
+        <v>474686.816669155</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.554594591</v>
+        <v>474686.8166691546</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945906</v>
+        <v>474686.8166691547</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.849713023377474e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.8077919536575</v>
+        <v>115.8077919536517</v>
       </c>
       <c r="C3" t="n">
         <v>247.0713221041627</v>
@@ -26744,10 +26744,10 @@
         <v>286.759576367155</v>
       </c>
       <c r="E3" t="n">
-        <v>1327.82715535855</v>
+        <v>1327.827155358551</v>
       </c>
       <c r="F3" t="n">
-        <v>1327.82715535855</v>
+        <v>1327.827155358551</v>
       </c>
       <c r="G3" t="n">
         <v>1327.827155358551</v>
@@ -26796,16 +26796,16 @@
         <v>14.14993519808115</v>
       </c>
       <c r="E4" t="n">
-        <v>1123.119754730522</v>
+        <v>1123.119754730523</v>
       </c>
       <c r="F4" t="n">
-        <v>1123.119754730522</v>
+        <v>1123.119754730523</v>
       </c>
       <c r="G4" t="n">
-        <v>1123.119754730522</v>
+        <v>1123.119754730523</v>
       </c>
       <c r="H4" t="n">
-        <v>1123.119754730522</v>
+        <v>1123.119754730523</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.8077919536575</v>
+        <v>115.8077919536517</v>
       </c>
       <c r="C3" t="n">
-        <v>131.2635301505051</v>
+        <v>131.263530150511</v>
       </c>
       <c r="D3" t="n">
         <v>39.68825426299239</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.067578991395</v>
+        <v>1041.067578991396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40.14834498312325</v>
+        <v>40.14834498312257</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>7.273889456369716</v>
       </c>
       <c r="E4" t="n">
-        <v>1108.96981953244</v>
+        <v>1108.969819532442</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.58853336912625</v>
+        <v>49.58853336912534</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>7.273889456369943</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.96981953244</v>
+        <v>1108.969819532442</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>7.273889456369716</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.96981953244</v>
+        <v>1108.969819532442</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>334.7068963897555</v>
+        <v>334.7068963897557</v>
       </c>
       <c r="I2" t="n">
-        <v>192.5274276636989</v>
+        <v>192.5274276636997</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>120.6244497549831</v>
+        <v>120.6244497549846</v>
       </c>
       <c r="S2" t="n">
-        <v>198.4111447253651</v>
+        <v>198.4111447253656</v>
       </c>
       <c r="T2" t="n">
-        <v>221.0578652052283</v>
+        <v>221.0578652052284</v>
       </c>
       <c r="U2" t="n">
         <v>251.3084081908263</v>
@@ -27473,10 +27473,10 @@
         <v>137.0944211578764</v>
       </c>
       <c r="H3" t="n">
-        <v>109.8297012376101</v>
+        <v>109.8297012376102</v>
       </c>
       <c r="I3" t="n">
-        <v>80.8203010888093</v>
+        <v>80.82030108880974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>84.69203129513392</v>
+        <v>84.6920312951347</v>
       </c>
       <c r="S3" t="n">
-        <v>167.0563220573875</v>
+        <v>167.0563220573877</v>
       </c>
       <c r="T3" t="n">
         <v>199.1606969891102</v>
@@ -27552,13 +27552,13 @@
         <v>167.7821456352636</v>
       </c>
       <c r="H4" t="n">
-        <v>160.3704508593957</v>
+        <v>160.3704508593958</v>
       </c>
       <c r="I4" t="n">
-        <v>149.1702753242632</v>
+        <v>149.1702753242635</v>
       </c>
       <c r="J4" t="n">
-        <v>78.59463588677778</v>
+        <v>78.59463588677853</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6750666666921</v>
+        <v>68.67506666669298</v>
       </c>
       <c r="R4" t="n">
-        <v>167.9034677869598</v>
+        <v>167.9034677869603</v>
       </c>
       <c r="S4" t="n">
-        <v>220.3771957881991</v>
+        <v>220.3771957881993</v>
       </c>
       <c r="T4" t="n">
-        <v>227.0532998837205</v>
+        <v>227.0532998837206</v>
       </c>
       <c r="U4" t="n">
         <v>286.3076384261348</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.3026647187852</v>
+        <v>322.4266189770738</v>
       </c>
       <c r="I5" t="n">
         <v>172.1835593375587</v>
@@ -27664,10 +27664,10 @@
         <v>87.47678050546884</v>
       </c>
       <c r="S5" t="n">
-        <v>180.3299288891123</v>
+        <v>186.3863499784117</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8718451791597</v>
+        <v>218.7478909208712</v>
       </c>
       <c r="U5" t="n">
         <v>251.2661927841447</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>363.6746795891696</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,10 +27707,10 @@
         <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8120807345338</v>
+        <v>130.7556596452343</v>
       </c>
       <c r="H6" t="n">
-        <v>107.1028871490119</v>
+        <v>100.2268414073004</v>
       </c>
       <c r="I6" t="n">
         <v>64.22332410481989</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>158.2659306546876</v>
       </c>
       <c r="I7" t="n">
-        <v>135.1758728983244</v>
+        <v>142.0519186400358</v>
       </c>
       <c r="J7" t="n">
-        <v>54.98356598145195</v>
+        <v>61.85961172316338</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.85427361396582</v>
+        <v>41.97822787225439</v>
       </c>
       <c r="R7" t="n">
         <v>157.2603625390188</v>
@@ -27825,19 +27825,19 @@
         <v>216.2520779636332</v>
       </c>
       <c r="T7" t="n">
-        <v>226.0419251432166</v>
+        <v>219.9855040539172</v>
       </c>
       <c r="U7" t="n">
-        <v>279.4186815175233</v>
+        <v>286.2947272592347</v>
       </c>
       <c r="V7" t="n">
-        <v>246.0812222345286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>392.7261105436303</v>
+        <v>394.4127828192416</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.2054024637691</v>
+        <v>327.668665386239</v>
       </c>
       <c r="I8" t="n">
         <v>166.0324782421858</v>
@@ -27910,7 +27910,7 @@
         <v>251.2534287224722</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>313.6023232720538</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.3832484517862</v>
+        <v>154.0699207273975</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>158.5585637902346</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>133.2951303665576</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>143.4951452573198</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>239.2317202384497</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>191.6230500053963</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>191.5327605792232</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.6820449838561</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>139.8996441301673</v>
       </c>
       <c r="J10" t="n">
-        <v>42.64974942011024</v>
+        <v>44.33642169572152</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>215.0048257763848</v>
       </c>
       <c r="T10" t="n">
-        <v>213.272867474786</v>
+        <v>225.7361303972559</v>
       </c>
       <c r="U10" t="n">
-        <v>272.1408882984392</v>
+        <v>286.2908234965204</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>204.4347181540136</v>
       </c>
     </row>
     <row r="11">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4655589626277686</v>
+        <v>0.4655589626277451</v>
       </c>
       <c r="H2" t="n">
-        <v>4.767905726011636</v>
+        <v>4.767905726011396</v>
       </c>
       <c r="I2" t="n">
-        <v>17.94846190670707</v>
+        <v>17.94846190670616</v>
       </c>
       <c r="J2" t="n">
-        <v>39.51373500432861</v>
+        <v>39.51373500432662</v>
       </c>
       <c r="K2" t="n">
-        <v>59.22084589236207</v>
+        <v>59.22084589235908</v>
       </c>
       <c r="L2" t="n">
-        <v>73.46869599488166</v>
+        <v>73.46869599487795</v>
       </c>
       <c r="M2" t="n">
-        <v>81.74808019651323</v>
+        <v>81.74808019650911</v>
       </c>
       <c r="N2" t="n">
-        <v>83.07084959907939</v>
+        <v>83.0708495990752</v>
       </c>
       <c r="O2" t="n">
-        <v>78.44144766444951</v>
+        <v>78.44144766444555</v>
       </c>
       <c r="P2" t="n">
-        <v>66.94796077457646</v>
+        <v>66.94796077457309</v>
       </c>
       <c r="Q2" t="n">
-        <v>50.27513042546948</v>
+        <v>50.27513042546695</v>
       </c>
       <c r="R2" t="n">
-        <v>29.2446681861666</v>
+        <v>29.24466818616512</v>
       </c>
       <c r="S2" t="n">
-        <v>10.60892486088029</v>
+        <v>10.60892486087975</v>
       </c>
       <c r="T2" t="n">
-        <v>2.037984358903058</v>
+        <v>2.037984358902955</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03724471701022148</v>
+        <v>0.0372447170102196</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2490960053342822</v>
+        <v>0.2490960053342697</v>
       </c>
       <c r="H3" t="n">
-        <v>2.405742998886358</v>
+        <v>2.405742998886236</v>
       </c>
       <c r="I3" t="n">
-        <v>8.57633176260577</v>
+        <v>8.576331762605339</v>
       </c>
       <c r="J3" t="n">
-        <v>23.53410987239375</v>
+        <v>23.53410987239256</v>
       </c>
       <c r="K3" t="n">
-        <v>40.22354222979066</v>
+        <v>40.22354222978863</v>
       </c>
       <c r="L3" t="n">
-        <v>54.08551642137563</v>
+        <v>54.0855164213729</v>
       </c>
       <c r="M3" t="n">
-        <v>63.11524661474334</v>
+        <v>63.11524661474016</v>
       </c>
       <c r="N3" t="n">
-        <v>64.7857193873579</v>
+        <v>64.78571938735465</v>
       </c>
       <c r="O3" t="n">
-        <v>59.26627632179301</v>
+        <v>59.26627632179003</v>
       </c>
       <c r="P3" t="n">
-        <v>47.56641175545606</v>
+        <v>47.56641175545366</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.79688657565329</v>
+        <v>31.79688657565169</v>
       </c>
       <c r="R3" t="n">
-        <v>15.46580285750921</v>
+        <v>15.46580285750843</v>
       </c>
       <c r="S3" t="n">
-        <v>4.626849046450371</v>
+        <v>4.626849046450138</v>
       </c>
       <c r="T3" t="n">
-        <v>1.004031705711427</v>
+        <v>1.004031705711376</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01638789508778173</v>
+        <v>0.01638789508778091</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2088337231951201</v>
+        <v>0.2088337231951096</v>
       </c>
       <c r="H4" t="n">
-        <v>1.856721648043888</v>
+        <v>1.856721648043794</v>
       </c>
       <c r="I4" t="n">
-        <v>6.280199602995069</v>
+        <v>6.280199602994752</v>
       </c>
       <c r="J4" t="n">
-        <v>14.76454422989499</v>
+        <v>14.76454422989425</v>
       </c>
       <c r="K4" t="n">
-        <v>24.26268165848759</v>
+        <v>24.26268165848636</v>
       </c>
       <c r="L4" t="n">
-        <v>31.04787917393632</v>
+        <v>31.04787917393475</v>
       </c>
       <c r="M4" t="n">
-        <v>32.73563535503141</v>
+        <v>32.73563535502976</v>
       </c>
       <c r="N4" t="n">
-        <v>31.95725511403145</v>
+        <v>31.95725511402983</v>
       </c>
       <c r="O4" t="n">
-        <v>29.5176975294339</v>
+        <v>29.51769752943241</v>
       </c>
       <c r="P4" t="n">
-        <v>25.25748957625343</v>
+        <v>25.25748957625215</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.48697658500229</v>
+        <v>17.4869765850014</v>
       </c>
       <c r="R4" t="n">
-        <v>9.389923590209671</v>
+        <v>9.389923590209197</v>
       </c>
       <c r="S4" t="n">
-        <v>3.639402248773137</v>
+        <v>3.639402248772954</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8922895445609675</v>
+        <v>0.8922895445609225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01139093035609747</v>
+        <v>0.0113909303560969</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.337998614506731</v>
+        <v>5.337998614506735</v>
       </c>
       <c r="H11" t="n">
-        <v>54.66777831081707</v>
+        <v>54.66777831081712</v>
       </c>
       <c r="I11" t="n">
-        <v>205.7931915857709</v>
+        <v>205.7931915857711</v>
       </c>
       <c r="J11" t="n">
-        <v>453.0559599079911</v>
+        <v>453.0559599079915</v>
       </c>
       <c r="K11" t="n">
-        <v>679.0134412600611</v>
+        <v>679.0134412600617</v>
       </c>
       <c r="L11" t="n">
-        <v>842.3762163587717</v>
+        <v>842.3762163587724</v>
       </c>
       <c r="M11" t="n">
-        <v>937.3058492195056</v>
+        <v>937.3058492195065</v>
       </c>
       <c r="N11" t="n">
-        <v>952.472437782973</v>
+        <v>952.4724377829738</v>
       </c>
       <c r="O11" t="n">
-        <v>899.3927140599716</v>
+        <v>899.3927140599724</v>
       </c>
       <c r="P11" t="n">
-        <v>767.6108732643366</v>
+        <v>767.6108732643372</v>
       </c>
       <c r="Q11" t="n">
-        <v>576.4437978823141</v>
+        <v>576.4437978823146</v>
       </c>
       <c r="R11" t="n">
-        <v>335.3130554685087</v>
+        <v>335.313055468509</v>
       </c>
       <c r="S11" t="n">
-        <v>121.6396434280722</v>
+        <v>121.6396434280723</v>
       </c>
       <c r="T11" t="n">
-        <v>23.36708893500322</v>
+        <v>23.36708893500325</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4270398891605384</v>
+        <v>0.4270398891605388</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.85608105114858</v>
+        <v>2.856081051148582</v>
       </c>
       <c r="H12" t="n">
-        <v>27.58373015188234</v>
+        <v>27.58373015188237</v>
       </c>
       <c r="I12" t="n">
-        <v>98.33436952419454</v>
+        <v>98.33436952419463</v>
       </c>
       <c r="J12" t="n">
-        <v>269.837025977156</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>461.1944564041112</v>
       </c>
       <c r="L12" t="n">
-        <v>620.132861566274</v>
+        <v>620.1328615662745</v>
       </c>
       <c r="M12" t="n">
-        <v>723.6657996704098</v>
+        <v>723.6657996704105</v>
       </c>
       <c r="N12" t="n">
-        <v>742.8190800528931</v>
+        <v>284.7627804460092</v>
       </c>
       <c r="O12" t="n">
-        <v>679.5343367616535</v>
+        <v>679.5343367616541</v>
       </c>
       <c r="P12" t="n">
-        <v>267.6835325689906</v>
+        <v>545.3862140566096</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>53.05045285795714</v>
+        <v>53.05045285795718</v>
       </c>
       <c r="T12" t="n">
-        <v>11.51201090353309</v>
+        <v>11.5120109035331</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1879000691545119</v>
+        <v>0.1879000691545121</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.394442411302304</v>
+        <v>2.394442411302306</v>
       </c>
       <c r="H13" t="n">
-        <v>21.28876980230595</v>
+        <v>21.28876980230597</v>
       </c>
       <c r="I13" t="n">
-        <v>72.00741360534566</v>
+        <v>72.00741360534572</v>
       </c>
       <c r="J13" t="n">
-        <v>169.2870784790728</v>
+        <v>169.287078479073</v>
       </c>
       <c r="K13" t="n">
-        <v>278.1906728767585</v>
+        <v>278.1906728767587</v>
       </c>
       <c r="L13" t="n">
-        <v>355.9882835857989</v>
+        <v>355.9882835857992</v>
       </c>
       <c r="M13" t="n">
-        <v>375.3397318007783</v>
+        <v>375.3397318007786</v>
       </c>
       <c r="N13" t="n">
-        <v>366.4149919041064</v>
+        <v>366.4149919041067</v>
       </c>
       <c r="O13" t="n">
-        <v>338.4435510084384</v>
+        <v>338.4435510084388</v>
       </c>
       <c r="P13" t="n">
-        <v>289.5969258178712</v>
+        <v>289.5969258178715</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.5019004591411</v>
+        <v>200.5019004591413</v>
       </c>
       <c r="R13" t="n">
-        <v>107.6628378754654</v>
+        <v>107.6628378754655</v>
       </c>
       <c r="S13" t="n">
-        <v>41.72860093151377</v>
+        <v>41.7286009315138</v>
       </c>
       <c r="T13" t="n">
-        <v>10.2307993937462</v>
+        <v>10.23079939374621</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1306059497073985</v>
+        <v>0.1306059497073986</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.337998614506731</v>
+        <v>5.337998614506735</v>
       </c>
       <c r="H14" t="n">
-        <v>54.66777831081707</v>
+        <v>54.66777831081712</v>
       </c>
       <c r="I14" t="n">
-        <v>205.7931915857709</v>
+        <v>205.7931915857711</v>
       </c>
       <c r="J14" t="n">
-        <v>453.0559599079911</v>
+        <v>453.0559599079915</v>
       </c>
       <c r="K14" t="n">
-        <v>679.0134412600611</v>
+        <v>679.0134412600617</v>
       </c>
       <c r="L14" t="n">
-        <v>842.3762163587717</v>
+        <v>842.3762163587724</v>
       </c>
       <c r="M14" t="n">
-        <v>937.3058492195056</v>
+        <v>937.3058492195065</v>
       </c>
       <c r="N14" t="n">
-        <v>952.472437782973</v>
+        <v>952.4724377829738</v>
       </c>
       <c r="O14" t="n">
-        <v>899.3927140599716</v>
+        <v>899.3927140599724</v>
       </c>
       <c r="P14" t="n">
-        <v>767.6108732643366</v>
+        <v>767.6108732643372</v>
       </c>
       <c r="Q14" t="n">
-        <v>576.4437978823141</v>
+        <v>576.4437978823146</v>
       </c>
       <c r="R14" t="n">
-        <v>335.3130554685087</v>
+        <v>335.313055468509</v>
       </c>
       <c r="S14" t="n">
-        <v>121.6396434280722</v>
+        <v>121.6396434280723</v>
       </c>
       <c r="T14" t="n">
-        <v>23.36708893500322</v>
+        <v>23.36708893500325</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4270398891605384</v>
+        <v>0.4270398891605388</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.85608105114858</v>
+        <v>2.856081051148582</v>
       </c>
       <c r="H15" t="n">
-        <v>27.58373015188234</v>
+        <v>27.58373015188237</v>
       </c>
       <c r="I15" t="n">
-        <v>98.33436952419454</v>
+        <v>98.33436952419463</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>414.5499634395086</v>
+        <v>260.1221718247876</v>
       </c>
       <c r="L15" t="n">
-        <v>620.132861566274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>723.6657996704098</v>
+        <v>723.6657996704105</v>
       </c>
       <c r="N15" t="n">
-        <v>742.8190800528931</v>
+        <v>742.8190800528938</v>
       </c>
       <c r="O15" t="n">
-        <v>679.5343367616535</v>
+        <v>679.5343367616541</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>545.3862140566096</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>364.5762408448612</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>53.05045285795714</v>
+        <v>53.05045285795718</v>
       </c>
       <c r="T15" t="n">
-        <v>11.51201090353309</v>
+        <v>11.5120109035331</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1879000691545119</v>
+        <v>0.1879000691545121</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.394442411302304</v>
+        <v>2.394442411302306</v>
       </c>
       <c r="H16" t="n">
-        <v>21.28876980230595</v>
+        <v>21.28876980230597</v>
       </c>
       <c r="I16" t="n">
-        <v>72.00741360534566</v>
+        <v>72.00741360534572</v>
       </c>
       <c r="J16" t="n">
-        <v>169.2870784790728</v>
+        <v>169.287078479073</v>
       </c>
       <c r="K16" t="n">
-        <v>278.1906728767585</v>
+        <v>278.1906728767587</v>
       </c>
       <c r="L16" t="n">
-        <v>355.9882835857989</v>
+        <v>355.9882835857992</v>
       </c>
       <c r="M16" t="n">
-        <v>375.3397318007783</v>
+        <v>375.3397318007786</v>
       </c>
       <c r="N16" t="n">
-        <v>366.4149919041064</v>
+        <v>366.4149919041067</v>
       </c>
       <c r="O16" t="n">
-        <v>338.4435510084384</v>
+        <v>338.4435510084388</v>
       </c>
       <c r="P16" t="n">
-        <v>289.5969258178712</v>
+        <v>289.5969258178715</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.5019004591411</v>
+        <v>200.5019004591413</v>
       </c>
       <c r="R16" t="n">
-        <v>107.6628378754654</v>
+        <v>107.6628378754655</v>
       </c>
       <c r="S16" t="n">
-        <v>41.72860093151377</v>
+        <v>41.7286009315138</v>
       </c>
       <c r="T16" t="n">
-        <v>10.2307993937462</v>
+        <v>10.23079939374621</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1306059497073985</v>
+        <v>0.1306059497073986</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.337998614506732</v>
+        <v>5.337998614506735</v>
       </c>
       <c r="H17" t="n">
-        <v>54.66777831081709</v>
+        <v>54.66777831081712</v>
       </c>
       <c r="I17" t="n">
-        <v>205.793191585771</v>
+        <v>205.7931915857711</v>
       </c>
       <c r="J17" t="n">
-        <v>453.0559599079912</v>
+        <v>453.0559599079915</v>
       </c>
       <c r="K17" t="n">
-        <v>679.0134412600613</v>
+        <v>679.0134412600617</v>
       </c>
       <c r="L17" t="n">
-        <v>842.3762163587719</v>
+        <v>842.3762163587724</v>
       </c>
       <c r="M17" t="n">
-        <v>937.3058492195059</v>
+        <v>937.3058492195065</v>
       </c>
       <c r="N17" t="n">
-        <v>952.4724377829733</v>
+        <v>952.4724377829738</v>
       </c>
       <c r="O17" t="n">
-        <v>899.3927140599719</v>
+        <v>899.3927140599724</v>
       </c>
       <c r="P17" t="n">
-        <v>767.6108732643369</v>
+        <v>767.6108732643372</v>
       </c>
       <c r="Q17" t="n">
-        <v>576.4437978823144</v>
+        <v>576.4437978823146</v>
       </c>
       <c r="R17" t="n">
-        <v>335.3130554685088</v>
+        <v>335.313055468509</v>
       </c>
       <c r="S17" t="n">
         <v>121.6396434280723</v>
       </c>
       <c r="T17" t="n">
-        <v>23.36708893500323</v>
+        <v>23.36708893500325</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4270398891605385</v>
+        <v>0.4270398891605388</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.856081051148581</v>
+        <v>2.856081051148582</v>
       </c>
       <c r="H18" t="n">
-        <v>27.58373015188235</v>
+        <v>27.58373015188237</v>
       </c>
       <c r="I18" t="n">
-        <v>98.33436952419457</v>
+        <v>98.33436952419463</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>269.8370259771563</v>
       </c>
       <c r="K18" t="n">
-        <v>414.5499634395078</v>
+        <v>461.1944564041112</v>
       </c>
       <c r="L18" t="n">
-        <v>620.1328615662742</v>
+        <v>620.1328615662745</v>
       </c>
       <c r="M18" t="n">
-        <v>723.66579967041</v>
+        <v>723.6657996704105</v>
       </c>
       <c r="N18" t="n">
-        <v>742.8190800528935</v>
+        <v>742.8190800528938</v>
       </c>
       <c r="O18" t="n">
-        <v>679.5343367616538</v>
+        <v>489.8904444865595</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>53.05045285795716</v>
+        <v>53.05045285795718</v>
       </c>
       <c r="T18" t="n">
-        <v>11.51201090353309</v>
+        <v>11.5120109035331</v>
       </c>
       <c r="U18" t="n">
-        <v>0.187900069154512</v>
+        <v>0.1879000691545121</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.394442411302304</v>
+        <v>2.394442411302306</v>
       </c>
       <c r="H19" t="n">
-        <v>21.28876980230596</v>
+        <v>21.28876980230597</v>
       </c>
       <c r="I19" t="n">
-        <v>72.00741360534569</v>
+        <v>72.00741360534572</v>
       </c>
       <c r="J19" t="n">
-        <v>169.2870784790729</v>
+        <v>169.287078479073</v>
       </c>
       <c r="K19" t="n">
-        <v>278.1906728767586</v>
+        <v>278.1906728767587</v>
       </c>
       <c r="L19" t="n">
-        <v>355.988283585799</v>
+        <v>355.9882835857992</v>
       </c>
       <c r="M19" t="n">
-        <v>375.3397318007785</v>
+        <v>375.3397318007786</v>
       </c>
       <c r="N19" t="n">
-        <v>366.4149919041065</v>
+        <v>366.4149919041067</v>
       </c>
       <c r="O19" t="n">
-        <v>338.4435510084385</v>
+        <v>338.4435510084388</v>
       </c>
       <c r="P19" t="n">
-        <v>289.5969258178713</v>
+        <v>289.5969258178715</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.5019004591412</v>
+        <v>200.5019004591413</v>
       </c>
       <c r="R19" t="n">
-        <v>107.6628378754654</v>
+        <v>107.6628378754655</v>
       </c>
       <c r="S19" t="n">
-        <v>41.72860093151378</v>
+        <v>41.7286009315138</v>
       </c>
       <c r="T19" t="n">
         <v>10.23079939374621</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.337998614506732</v>
+        <v>5.337998614506735</v>
       </c>
       <c r="H20" t="n">
-        <v>54.66777831081709</v>
+        <v>54.66777831081712</v>
       </c>
       <c r="I20" t="n">
-        <v>205.793191585771</v>
+        <v>205.7931915857711</v>
       </c>
       <c r="J20" t="n">
-        <v>453.0559599079912</v>
+        <v>453.0559599079915</v>
       </c>
       <c r="K20" t="n">
-        <v>679.0134412600613</v>
+        <v>679.0134412600617</v>
       </c>
       <c r="L20" t="n">
-        <v>842.3762163587719</v>
+        <v>842.3762163587724</v>
       </c>
       <c r="M20" t="n">
-        <v>937.3058492195059</v>
+        <v>937.3058492195065</v>
       </c>
       <c r="N20" t="n">
-        <v>952.4724377829733</v>
+        <v>952.4724377829738</v>
       </c>
       <c r="O20" t="n">
-        <v>899.3927140599719</v>
+        <v>899.3927140599724</v>
       </c>
       <c r="P20" t="n">
-        <v>767.6108732643369</v>
+        <v>767.6108732643372</v>
       </c>
       <c r="Q20" t="n">
-        <v>576.4437978823144</v>
+        <v>576.4437978823146</v>
       </c>
       <c r="R20" t="n">
-        <v>335.3130554685088</v>
+        <v>335.313055468509</v>
       </c>
       <c r="S20" t="n">
         <v>121.6396434280723</v>
       </c>
       <c r="T20" t="n">
-        <v>23.36708893500323</v>
+        <v>23.36708893500325</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4270398891605385</v>
+        <v>0.4270398891605388</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.856081051148581</v>
+        <v>2.856081051148582</v>
       </c>
       <c r="H21" t="n">
-        <v>27.58373015188235</v>
+        <v>27.58373015188237</v>
       </c>
       <c r="I21" t="n">
-        <v>98.33436952419457</v>
+        <v>98.33436952419463</v>
       </c>
       <c r="J21" t="n">
-        <v>269.8370259771561</v>
+        <v>269.8370259771563</v>
       </c>
       <c r="K21" t="n">
-        <v>461.194456404111</v>
+        <v>461.1944564041112</v>
       </c>
       <c r="L21" t="n">
-        <v>620.1328615662742</v>
+        <v>620.1328615662745</v>
       </c>
       <c r="M21" t="n">
-        <v>723.66579967041</v>
+        <v>723.6657996704105</v>
       </c>
       <c r="N21" t="n">
-        <v>742.8190800528935</v>
+        <v>742.8190800528938</v>
       </c>
       <c r="O21" t="n">
-        <v>489.8904444865614</v>
+        <v>489.8904444865595</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>53.05045285795716</v>
+        <v>53.05045285795718</v>
       </c>
       <c r="T21" t="n">
-        <v>11.51201090353309</v>
+        <v>11.5120109035331</v>
       </c>
       <c r="U21" t="n">
-        <v>0.187900069154512</v>
+        <v>0.1879000691545121</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.394442411302304</v>
+        <v>2.394442411302306</v>
       </c>
       <c r="H22" t="n">
-        <v>21.28876980230596</v>
+        <v>21.28876980230597</v>
       </c>
       <c r="I22" t="n">
-        <v>72.00741360534569</v>
+        <v>72.00741360534572</v>
       </c>
       <c r="J22" t="n">
-        <v>169.2870784790729</v>
+        <v>169.287078479073</v>
       </c>
       <c r="K22" t="n">
-        <v>278.1906728767586</v>
+        <v>278.1906728767587</v>
       </c>
       <c r="L22" t="n">
-        <v>355.988283585799</v>
+        <v>355.9882835857992</v>
       </c>
       <c r="M22" t="n">
-        <v>375.3397318007785</v>
+        <v>375.3397318007786</v>
       </c>
       <c r="N22" t="n">
-        <v>366.4149919041065</v>
+        <v>366.4149919041067</v>
       </c>
       <c r="O22" t="n">
-        <v>338.4435510084385</v>
+        <v>338.4435510084388</v>
       </c>
       <c r="P22" t="n">
-        <v>289.5969258178713</v>
+        <v>289.5969258178715</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.5019004591412</v>
+        <v>200.5019004591413</v>
       </c>
       <c r="R22" t="n">
-        <v>107.6628378754654</v>
+        <v>107.6628378754655</v>
       </c>
       <c r="S22" t="n">
-        <v>41.72860093151378</v>
+        <v>41.7286009315138</v>
       </c>
       <c r="T22" t="n">
         <v>10.23079939374621</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33257,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422586</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,7 +33494,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,7 +33983,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33992,7 +33992,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,19 +34205,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
-        <v>232.153703594058</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6.876045741711437</v>
@@ -35030,7 +35030,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,13 +35097,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.57822064462333</v>
+      </c>
+      <c r="O8" t="n">
         <v>14.14993519808115</v>
-      </c>
-      <c r="K8" t="n">
-        <v>13.57822064462333</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>14.14993519808115</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>14.14993519808115</v>
@@ -35264,13 +35264,13 @@
         <v>14.14993519808115</v>
       </c>
       <c r="O9" t="n">
-        <v>4.157026679980646</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.421193964642681</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,16 +35331,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.14993519808115</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>13.57822064462333</v>
       </c>
       <c r="M10" t="n">
-        <v>13.57822064462333</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>14.14993519808115</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>14.14993519808115</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>272.0100553813048</v>
+        <v>272.0100553813052</v>
       </c>
       <c r="K11" t="n">
-        <v>458.9235902150805</v>
+        <v>458.9235902150811</v>
       </c>
       <c r="L11" t="n">
-        <v>606.6098013887845</v>
+        <v>606.6098013887852</v>
       </c>
       <c r="M11" t="n">
-        <v>706.9596159922329</v>
+        <v>706.9596159922338</v>
       </c>
       <c r="N11" t="n">
-        <v>723.059374186382</v>
+        <v>723.0593741863829</v>
       </c>
       <c r="O11" t="n">
-        <v>669.2945026382848</v>
+        <v>669.2945026382856</v>
       </c>
       <c r="P11" t="n">
-        <v>536.377877509067</v>
+        <v>536.3778775090677</v>
       </c>
       <c r="Q11" t="n">
-        <v>354.1381080078646</v>
+        <v>354.1381080078651</v>
       </c>
       <c r="R11" t="n">
-        <v>119.7275176543766</v>
+        <v>119.7275176543769</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>142.9993993104893</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>323.3530174297522</v>
       </c>
       <c r="L12" t="n">
-        <v>481.5784817863998</v>
+        <v>481.5784817864003</v>
       </c>
       <c r="M12" t="n">
-        <v>581.5317657483915</v>
+        <v>581.5317657483922</v>
       </c>
       <c r="N12" t="n">
-        <v>611.4773679695599</v>
+        <v>153.4210683626759</v>
       </c>
       <c r="O12" t="n">
-        <v>536.9380923172091</v>
+        <v>536.9380923172097</v>
       </c>
       <c r="P12" t="n">
-        <v>133.7091251546604</v>
+        <v>411.4118066422793</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>75.92789836240007</v>
+        <v>75.92789836240021</v>
       </c>
       <c r="K13" t="n">
-        <v>255.9211810508756</v>
+        <v>255.9211810508758</v>
       </c>
       <c r="L13" t="n">
-        <v>383.5783088461151</v>
+        <v>383.5783088461153</v>
       </c>
       <c r="M13" t="n">
-        <v>414.9236087626189</v>
+        <v>414.9236087626192</v>
       </c>
       <c r="N13" t="n">
-        <v>410.547164283335</v>
+        <v>410.5471642833353</v>
       </c>
       <c r="O13" t="n">
-        <v>363.0286789224781</v>
+        <v>363.0286789224784</v>
       </c>
       <c r="P13" t="n">
-        <v>286.8754850827647</v>
+        <v>286.875485082765</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.3398572074467</v>
+        <v>114.3398572074469</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>272.0100553813048</v>
+        <v>272.0100553813052</v>
       </c>
       <c r="K14" t="n">
-        <v>458.9235902150805</v>
+        <v>458.9235902150811</v>
       </c>
       <c r="L14" t="n">
-        <v>606.6098013887845</v>
+        <v>606.6098013887852</v>
       </c>
       <c r="M14" t="n">
-        <v>706.9596159922329</v>
+        <v>706.9596159922338</v>
       </c>
       <c r="N14" t="n">
-        <v>723.059374186382</v>
+        <v>723.0593741863829</v>
       </c>
       <c r="O14" t="n">
-        <v>669.2945026382848</v>
+        <v>669.2945026382856</v>
       </c>
       <c r="P14" t="n">
-        <v>536.377877509067</v>
+        <v>536.3778775090677</v>
       </c>
       <c r="Q14" t="n">
-        <v>354.1381080078646</v>
+        <v>354.1381080078651</v>
       </c>
       <c r="R14" t="n">
-        <v>119.7275176543766</v>
+        <v>119.7275176543769</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>276.7085244651497</v>
+        <v>122.2807328504287</v>
       </c>
       <c r="L15" t="n">
-        <v>481.5784817863998</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>581.5317657483915</v>
+        <v>581.5317657483922</v>
       </c>
       <c r="N15" t="n">
-        <v>611.4773679695599</v>
+        <v>611.4773679695605</v>
       </c>
       <c r="O15" t="n">
-        <v>536.9380923172091</v>
+        <v>536.9380923172097</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>411.4118066422793</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>224.5944667588396</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>75.92789836240007</v>
+        <v>75.92789836240021</v>
       </c>
       <c r="K16" t="n">
-        <v>255.9211810508756</v>
+        <v>255.9211810508758</v>
       </c>
       <c r="L16" t="n">
-        <v>383.5783088461151</v>
+        <v>383.5783088461153</v>
       </c>
       <c r="M16" t="n">
-        <v>414.9236087626189</v>
+        <v>414.9236087626192</v>
       </c>
       <c r="N16" t="n">
-        <v>410.547164283335</v>
+        <v>410.5471642833353</v>
       </c>
       <c r="O16" t="n">
-        <v>363.0286789224781</v>
+        <v>363.0286789224784</v>
       </c>
       <c r="P16" t="n">
-        <v>286.8754850827647</v>
+        <v>286.875485082765</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.3398572074467</v>
+        <v>114.3398572074469</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>272.0100553813049</v>
+        <v>272.0100553813052</v>
       </c>
       <c r="K17" t="n">
-        <v>458.9235902150808</v>
+        <v>458.9235902150811</v>
       </c>
       <c r="L17" t="n">
-        <v>606.6098013887847</v>
+        <v>606.6098013887852</v>
       </c>
       <c r="M17" t="n">
-        <v>706.9596159922332</v>
+        <v>706.9596159922338</v>
       </c>
       <c r="N17" t="n">
-        <v>723.0593741863825</v>
+        <v>723.0593741863829</v>
       </c>
       <c r="O17" t="n">
-        <v>669.2945026382852</v>
+        <v>669.2945026382856</v>
       </c>
       <c r="P17" t="n">
-        <v>536.3778775090673</v>
+        <v>536.3778775090677</v>
       </c>
       <c r="Q17" t="n">
-        <v>354.1381080078648</v>
+        <v>354.1381080078651</v>
       </c>
       <c r="R17" t="n">
-        <v>119.7275176543767</v>
+        <v>119.7275176543769</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>142.9993993104896</v>
       </c>
       <c r="K18" t="n">
-        <v>276.7085244651489</v>
+        <v>323.3530174297522</v>
       </c>
       <c r="L18" t="n">
-        <v>481.5784817864</v>
+        <v>481.5784817864003</v>
       </c>
       <c r="M18" t="n">
-        <v>581.5317657483918</v>
+        <v>581.5317657483922</v>
       </c>
       <c r="N18" t="n">
-        <v>611.4773679695602</v>
+        <v>611.4773679695605</v>
       </c>
       <c r="O18" t="n">
-        <v>536.9380923172093</v>
+        <v>347.2942000421151</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>75.92789836240013</v>
+        <v>75.92789836240021</v>
       </c>
       <c r="K19" t="n">
-        <v>255.9211810508757</v>
+        <v>255.9211810508758</v>
       </c>
       <c r="L19" t="n">
-        <v>383.5783088461152</v>
+        <v>383.5783088461153</v>
       </c>
       <c r="M19" t="n">
-        <v>414.923608762619</v>
+        <v>414.9236087626192</v>
       </c>
       <c r="N19" t="n">
-        <v>410.5471642833351</v>
+        <v>410.5471642833353</v>
       </c>
       <c r="O19" t="n">
-        <v>363.0286789224782</v>
+        <v>363.0286789224784</v>
       </c>
       <c r="P19" t="n">
-        <v>286.8754850827648</v>
+        <v>286.875485082765</v>
       </c>
       <c r="Q19" t="n">
-        <v>114.3398572074468</v>
+        <v>114.3398572074469</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>272.0100553813049</v>
+        <v>272.0100553813052</v>
       </c>
       <c r="K20" t="n">
-        <v>458.9235902150808</v>
+        <v>458.9235902150811</v>
       </c>
       <c r="L20" t="n">
-        <v>606.6098013887847</v>
+        <v>606.6098013887852</v>
       </c>
       <c r="M20" t="n">
-        <v>706.9596159922332</v>
+        <v>706.9596159922338</v>
       </c>
       <c r="N20" t="n">
-        <v>723.0593741863825</v>
+        <v>723.0593741863829</v>
       </c>
       <c r="O20" t="n">
-        <v>669.2945026382852</v>
+        <v>669.2945026382856</v>
       </c>
       <c r="P20" t="n">
-        <v>536.3778775090673</v>
+        <v>536.3778775090677</v>
       </c>
       <c r="Q20" t="n">
-        <v>354.1381080078648</v>
+        <v>354.1381080078651</v>
       </c>
       <c r="R20" t="n">
-        <v>119.7275176543767</v>
+        <v>119.7275176543769</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>142.9993993104894</v>
+        <v>142.9993993104896</v>
       </c>
       <c r="K21" t="n">
-        <v>323.353017429752</v>
+        <v>323.3530174297522</v>
       </c>
       <c r="L21" t="n">
-        <v>481.5784817864</v>
+        <v>481.5784817864003</v>
       </c>
       <c r="M21" t="n">
-        <v>581.5317657483918</v>
+        <v>581.5317657483922</v>
       </c>
       <c r="N21" t="n">
-        <v>611.4773679695602</v>
+        <v>611.4773679695605</v>
       </c>
       <c r="O21" t="n">
-        <v>347.2942000421169</v>
+        <v>347.2942000421151</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>75.92789836240013</v>
+        <v>75.92789836240021</v>
       </c>
       <c r="K22" t="n">
-        <v>255.9211810508757</v>
+        <v>255.9211810508758</v>
       </c>
       <c r="L22" t="n">
-        <v>383.5783088461152</v>
+        <v>383.5783088461153</v>
       </c>
       <c r="M22" t="n">
-        <v>414.923608762619</v>
+        <v>414.9236087626192</v>
       </c>
       <c r="N22" t="n">
-        <v>410.5471642833351</v>
+        <v>410.5471642833353</v>
       </c>
       <c r="O22" t="n">
-        <v>363.0286789224782</v>
+        <v>363.0286789224784</v>
       </c>
       <c r="P22" t="n">
-        <v>286.8754850827648</v>
+        <v>286.875485082765</v>
       </c>
       <c r="Q22" t="n">
-        <v>114.3398572074468</v>
+        <v>114.3398572074469</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193518</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010452</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010452</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,7 +37631,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
-        <v>90.01966967203964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
